--- a/currentbuild/StructureDefinition-no-doc-Trustframework-Location-PractitionerPointofcare.xlsx
+++ b/currentbuild/StructureDefinition-no-doc-Trustframework-Location-PractitionerPointofcare.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T11:47:09+00:00</t>
+    <t>2024-09-10T12:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-no-doc-Trustframework-Location-PractitionerPointofcare.xlsx
+++ b/currentbuild/StructureDefinition-no-doc-Trustframework-Location-PractitionerPointofcare.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T12:02:36+00:00</t>
+    <t>2024-09-10T12:10:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-no-doc-Trustframework-Location-PractitionerPointofcare.xlsx
+++ b/currentbuild/StructureDefinition-no-doc-Trustframework-Location-PractitionerPointofcare.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.6</t>
+    <t>0.9.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T12:10:45+00:00</t>
+    <t>2024-09-11T05:52:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-no-doc-Trustframework-Location-PractitionerPointofcare.xlsx
+++ b/currentbuild/StructureDefinition-no-doc-Trustframework-Location-PractitionerPointofcare.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T05:52:58+00:00</t>
+    <t>2024-09-11T06:02:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-no-doc-Trustframework-Location-PractitionerPointofcare.xlsx
+++ b/currentbuild/StructureDefinition-no-doc-Trustframework-Location-PractitionerPointofcare.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.7</t>
+    <t>0.9.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T06:02:16+00:00</t>
+    <t>2024-11-07T07:29:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -780,7 +780,7 @@
 </t>
   </si>
   <si>
-    <t>practitioner:point-of-care</t>
+    <t>practitioner:point_of_care</t>
   </si>
   <si>
     <t>The organization responsible for the provisioning and upkeep of the location.</t>
